--- a/biology/Zoologie/Tipula_miegi/Tipula_miegi.xlsx
+++ b/biology/Zoologie/Tipula_miegi/Tipula_miegi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tipula miegi est une espèce fossile d'insectes diptères de la famille des Tipulidae, de la sous-famille des Tipulinae et du genre Tipula.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2],[3]. 
-Fossiles
-Les holotypes R974 et 867 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs[2]. Ces holotype sont complétés par l'échantillon R163 de même provenance et même gisement.
-Étymologie
-L'épithète spécifique miegi rend hommage à la famille Mieg collectionneuse de cet insecte.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -543,49 +553,202 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les holotypes R974 et 867 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma.) fait partie de la collection Mieg conservée au musée d'histoire naturelle de Bâle en Suisse[note 1] et vient du gisement de Kleinkembs. Ces holotype sont complétés par l'échantillon R163 de même provenance et même gisement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique miegi rend hommage à la famille Mieg collectionneuse de cet insecte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 2] : 
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 2] : 
 « Empreinte et contre-empreinte d'une aile de Tipula. 
-Surface maculée de 3 taches dans la région basale postérieure et d'une large tache foncée le long du bord antérieur et de l'apex ; cette dernière percée d'une fenêtre claire sur la cellule discoïdale et d'une échancrure claire sur la 5° cellule postérieure ; cellule discoïdale courte et large ; branche antérieure de Cu non soudée avec le bord postérieur de la cellule discoïdale. »[1].
-Dimensions
-La longueur est de 16,5 mm, et la largeur de 4,5 mm[1].
-Affinités
+Surface maculée de 3 taches dans la région basale postérieure et d'une large tache foncée le long du bord antérieur et de l'apex ; cette dernière percée d'une fenêtre claire sur la cellule discoïdale et d'une échancrure claire sur la 5° cellule postérieure ; cellule discoïdale courte et large ; branche antérieure de Cu non soudée avec le bord postérieur de la cellule discoïdale. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur est de 16,5 mm, et la largeur de 4,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tipula_miegi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 « Cette aile diffère des formes précédentes par l'ornementation de l'aile, le parcours des nervures et la grande taille. Elle diffère aussi des formes de Célas par l'ornementation.
 Je rapproche de cette espèce une empreinte montant la tête, le thorax et les deux ailes (R163, pl XVIII, fig 5. même gisement. »
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Tipula_miegi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Tipula_miegi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 « Les Tipules vivent dans les prairies, les marais, les bois humides. Un minimum d'humidité du sol est nécessaire au développement des larves. Ce genre est universellement répandu. »
